--- a/Plan_Direccionamiento.xlsx
+++ b/Plan_Direccionamiento.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Caso de estudio-REDES\Caso-de-estudio-redes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD103E9A-90CD-4F74-9D28-26DB358DD05B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72B19C64-038F-467E-B38F-CF9B182101F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C1A70FEA-A176-4610-89D6-5E8630C399F7}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="60">
   <si>
     <t xml:space="preserve">SEDES </t>
   </si>
@@ -63,13 +63,163 @@
   </si>
   <si>
     <t>Descripción</t>
+  </si>
+  <si>
+    <t>Primera dirección</t>
+  </si>
+  <si>
+    <t>Última dirección</t>
+  </si>
+  <si>
+    <t>Grandes</t>
+  </si>
+  <si>
+    <t>Pequeñas</t>
+  </si>
+  <si>
+    <t>Machala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuenca </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Babahoyo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esmeraldas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portoviejo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ibarra </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ambato </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riobamba </t>
+  </si>
+  <si>
+    <t>Latacunga</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Santa Elena</t>
+  </si>
+  <si>
+    <t>SUCURSALES</t>
+  </si>
+  <si>
+    <t>Manta</t>
+  </si>
+  <si>
+    <t>Bahía</t>
+  </si>
+  <si>
+    <t>Chone</t>
+  </si>
+  <si>
+    <t>Jipijapa</t>
+  </si>
+  <si>
+    <t>Milagro</t>
+  </si>
+  <si>
+    <t>El Triunfo</t>
+  </si>
+  <si>
+    <t>Durán</t>
+  </si>
+  <si>
+    <t>Naranjal</t>
+  </si>
+  <si>
+    <t>Daule</t>
+  </si>
+  <si>
+    <t>Pasaje</t>
+  </si>
+  <si>
+    <t>El Guabo</t>
+  </si>
+  <si>
+    <t>Santa Rosa</t>
+  </si>
+  <si>
+    <t>Huaquillas</t>
+  </si>
+  <si>
+    <t>Salinas</t>
+  </si>
+  <si>
+    <t>La Libertad</t>
+  </si>
+  <si>
+    <t>Quevedo</t>
+  </si>
+  <si>
+    <t>Valencia</t>
+  </si>
+  <si>
+    <t>Ventanas</t>
+  </si>
+  <si>
+    <t>Vinces</t>
+  </si>
+  <si>
+    <t>Montalvo</t>
+  </si>
+  <si>
+    <t>San Lorenzo</t>
+  </si>
+  <si>
+    <t>Muisne</t>
+  </si>
+  <si>
+    <t>Quinindé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atacames </t>
+  </si>
+  <si>
+    <t>Gualeco</t>
+  </si>
+  <si>
+    <t>Chordeleg</t>
+  </si>
+  <si>
+    <t>Girón</t>
+  </si>
+  <si>
+    <t>Paute</t>
+  </si>
+  <si>
+    <t>Otavalo</t>
+  </si>
+  <si>
+    <t>Atuntaqui</t>
+  </si>
+  <si>
+    <t>Cotacachi</t>
+  </si>
+  <si>
+    <t>Mejía</t>
+  </si>
+  <si>
+    <t>Cayambe</t>
+  </si>
+  <si>
+    <t>Sangolqui</t>
+  </si>
+  <si>
+    <t>Machachí</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,8 +234,21 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -104,8 +267,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -178,40 +347,79 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -527,121 +735,528 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3ECA57C-C0C6-48F2-B4A3-4DC99C95754C}">
-  <dimension ref="A2:G8"/>
+  <dimension ref="A2:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.140625" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" customWidth="1"/>
-    <col min="5" max="5" width="27.42578125" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" customWidth="1"/>
-    <col min="7" max="7" width="22.42578125" customWidth="1"/>
+    <col min="1" max="1" width="24.140625" customWidth="1"/>
+    <col min="2" max="3" width="20.28515625" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" customWidth="1"/>
+    <col min="5" max="5" width="24" customWidth="1"/>
+    <col min="6" max="6" width="24.140625" customWidth="1"/>
+    <col min="7" max="7" width="21.28515625" customWidth="1"/>
+    <col min="8" max="8" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="8" t="s">
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+    </row>
+    <row r="4" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="7" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="6"/>
-    </row>
-    <row r="5" spans="1:7" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="F4" s="4"/>
+      <c r="G4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="3" t="s">
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="F5" s="8"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="3" t="s">
+      <c r="B6" s="11"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="F6" s="8"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="3" t="s">
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="F7" s="8"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="3" t="s">
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="4"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="15"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="17"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="17"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="17"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="17"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="17"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="17"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="17"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="17"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="17"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="17"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D24" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D25" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D26" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D27" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D28" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D29" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D30" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D31" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D32" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="4:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D33" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="4:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D34" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35" spans="4:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D35" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="4:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D36" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+    </row>
+    <row r="37" spans="4:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D37" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+    </row>
+    <row r="38" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D38" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+    </row>
+    <row r="39" spans="4:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D39" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+    </row>
+    <row r="40" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D40" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+    </row>
+    <row r="41" spans="4:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D41" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+    </row>
+    <row r="42" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D42" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+    </row>
+    <row r="43" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D43" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+    </row>
+    <row r="44" spans="4:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D44" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+    </row>
+    <row r="45" spans="4:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D45" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+    </row>
+    <row r="46" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D46" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+    </row>
+    <row r="47" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D47" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+    </row>
+    <row r="48" spans="4:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D48" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
+  <mergeCells count="16">
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="D12:F12"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Plan_Direccionamiento.xlsx
+++ b/Plan_Direccionamiento.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Caso de estudio-REDES\Caso-de-estudio-redes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tyrone\Documents\Caso-de-estudio-redes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72B19C64-038F-467E-B38F-CF9B182101F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF3B0F7C-A5F7-4210-8049-96FB3EEA6E6E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C1A70FEA-A176-4610-89D6-5E8630C399F7}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="307">
   <si>
     <t xml:space="preserve">SEDES </t>
   </si>
@@ -213,13 +213,754 @@
   </si>
   <si>
     <t>Machachí</t>
+  </si>
+  <si>
+    <t>192.168.96.0 /22</t>
+  </si>
+  <si>
+    <t>192.168.100.0 /23</t>
+  </si>
+  <si>
+    <t>192.168.102.0 /25</t>
+  </si>
+  <si>
+    <t>192.168.102.128 /25</t>
+  </si>
+  <si>
+    <t>192.168.99.255 /22</t>
+  </si>
+  <si>
+    <t>192.168.101.255 /23</t>
+  </si>
+  <si>
+    <t>192.168.102.127 /25</t>
+  </si>
+  <si>
+    <t>192.168.102.255 /25</t>
+  </si>
+  <si>
+    <t>192.16804.0 /23</t>
+  </si>
+  <si>
+    <t>192.168.106.0 /25</t>
+  </si>
+  <si>
+    <t>192.168.106.128 /26</t>
+  </si>
+  <si>
+    <t>192.168.106.192 /26</t>
+  </si>
+  <si>
+    <t>192.168.105.255 /23</t>
+  </si>
+  <si>
+    <t>192.168.106.127 /25</t>
+  </si>
+  <si>
+    <t>192.168.106.191 /26</t>
+  </si>
+  <si>
+    <t>192.168.106.255 /26</t>
+  </si>
+  <si>
+    <t>192.168.107.0 /25</t>
+  </si>
+  <si>
+    <t>192.168.107.128 /25</t>
+  </si>
+  <si>
+    <t>192.168.108.0 /25</t>
+  </si>
+  <si>
+    <t>192.168.108.128 /25</t>
+  </si>
+  <si>
+    <t>192.168.109.0 /25</t>
+  </si>
+  <si>
+    <t>192.168.109.128 /25</t>
+  </si>
+  <si>
+    <t>192.168.110.0 /25</t>
+  </si>
+  <si>
+    <t>192.168.110.128 /25</t>
+  </si>
+  <si>
+    <t>192.168.111.0 /25</t>
+  </si>
+  <si>
+    <t>192.168.111.128 /25</t>
+  </si>
+  <si>
+    <t>192.168.107.127 /25</t>
+  </si>
+  <si>
+    <t>192.168.107.255 /25</t>
+  </si>
+  <si>
+    <t>192.168.108.127 /25</t>
+  </si>
+  <si>
+    <t>192.168.108.255 /25</t>
+  </si>
+  <si>
+    <t>192.168.109.127 /25</t>
+  </si>
+  <si>
+    <t>192.168.109.255 /25</t>
+  </si>
+  <si>
+    <t>192.168.110.127 /25</t>
+  </si>
+  <si>
+    <t>192.168.110.255 /25</t>
+  </si>
+  <si>
+    <t>192.168.111.127 /25</t>
+  </si>
+  <si>
+    <t>192.168.111.255 /25</t>
+  </si>
+  <si>
+    <t>192.168.112.0 /27</t>
+  </si>
+  <si>
+    <t>192.168.112.32 /27</t>
+  </si>
+  <si>
+    <t>192.168.112.64 /27</t>
+  </si>
+  <si>
+    <t>192.168.112.96 /27</t>
+  </si>
+  <si>
+    <t>192.168.112.128 /27</t>
+  </si>
+  <si>
+    <t>192.168.112.160 /27</t>
+  </si>
+  <si>
+    <t>192.168.112.192 /27</t>
+  </si>
+  <si>
+    <t>192.168.112.224 /27</t>
+  </si>
+  <si>
+    <t>192.168.113.0 /27</t>
+  </si>
+  <si>
+    <t>192.168.113.32 /27</t>
+  </si>
+  <si>
+    <t>192.168.113.64 /27</t>
+  </si>
+  <si>
+    <t>192.168.113.96 /27</t>
+  </si>
+  <si>
+    <t>192.168.113.128 /27</t>
+  </si>
+  <si>
+    <t>192.168.113.160 /27</t>
+  </si>
+  <si>
+    <t>192.168.113.192 /27</t>
+  </si>
+  <si>
+    <t>192.168.113.224 /27</t>
+  </si>
+  <si>
+    <t>192.168.114.0 /27</t>
+  </si>
+  <si>
+    <t>192.168.114.32 /27</t>
+  </si>
+  <si>
+    <t>192.168.114.64 /27</t>
+  </si>
+  <si>
+    <t>192.168.114.96 /27</t>
+  </si>
+  <si>
+    <t>192.168.114.128 /27</t>
+  </si>
+  <si>
+    <t>192.168.114.160 /27</t>
+  </si>
+  <si>
+    <t>192.168.114.192 /27</t>
+  </si>
+  <si>
+    <t>192.168.114.224 /27</t>
+  </si>
+  <si>
+    <t>192.168.115.0 /27</t>
+  </si>
+  <si>
+    <t>192.168.115.32 /27</t>
+  </si>
+  <si>
+    <t>192.168.115.64 /27</t>
+  </si>
+  <si>
+    <t>192.168.115.96 /27</t>
+  </si>
+  <si>
+    <t>192.168.115.128 /27</t>
+  </si>
+  <si>
+    <t>192.168.115.160 /27</t>
+  </si>
+  <si>
+    <t>192.168.115.192 /27</t>
+  </si>
+  <si>
+    <t>192.168.115.224 /27</t>
+  </si>
+  <si>
+    <t>192.168.116.0 /27</t>
+  </si>
+  <si>
+    <t>192.168.116.32 /27</t>
+  </si>
+  <si>
+    <t>192.168.116.64 /27</t>
+  </si>
+  <si>
+    <t>192.168.112.31 /27</t>
+  </si>
+  <si>
+    <t>192.168.112.63 /27</t>
+  </si>
+  <si>
+    <t>192.168.112.95 /27</t>
+  </si>
+  <si>
+    <t>192.168.112.127 /27</t>
+  </si>
+  <si>
+    <t>192.168.112.159 /27</t>
+  </si>
+  <si>
+    <t>192.168.112.191 /27</t>
+  </si>
+  <si>
+    <t>192.168.112.223 /27</t>
+  </si>
+  <si>
+    <t>192.168.112.255/27</t>
+  </si>
+  <si>
+    <t>192.168.113.31 /27</t>
+  </si>
+  <si>
+    <t>192.168.113.63 /27</t>
+  </si>
+  <si>
+    <t>192.168.113.95 /27</t>
+  </si>
+  <si>
+    <t>192.168.113.127 /27</t>
+  </si>
+  <si>
+    <t>192.168.113.159 /27</t>
+  </si>
+  <si>
+    <t>192.168.113.191 /27</t>
+  </si>
+  <si>
+    <t>192.168.113.123 /27</t>
+  </si>
+  <si>
+    <t>192.168.113.255 /27</t>
+  </si>
+  <si>
+    <t>192.168.114.31 /27</t>
+  </si>
+  <si>
+    <t>192.168.116.95 /27</t>
+  </si>
+  <si>
+    <t>192.168.116.63 /27</t>
+  </si>
+  <si>
+    <t>192.168.116.31 /27</t>
+  </si>
+  <si>
+    <t>192.168.115.255 /27</t>
+  </si>
+  <si>
+    <t>192.168.115.223 /27</t>
+  </si>
+  <si>
+    <t>192.168.115.191 /27</t>
+  </si>
+  <si>
+    <t>192.168.115.159 /27</t>
+  </si>
+  <si>
+    <t>192.168.115.127 /27</t>
+  </si>
+  <si>
+    <t>192.168.115.95 /27</t>
+  </si>
+  <si>
+    <t>192.168.115.63 /27</t>
+  </si>
+  <si>
+    <t>192.168.115.31 /27</t>
+  </si>
+  <si>
+    <t>192.168.114.255 /27</t>
+  </si>
+  <si>
+    <t>192.168.114.223 /27</t>
+  </si>
+  <si>
+    <t>192.168.114.191 /27</t>
+  </si>
+  <si>
+    <t>192.168.114.159 /27</t>
+  </si>
+  <si>
+    <t>192.168.114.127 /27</t>
+  </si>
+  <si>
+    <t>192.168.114.95 /27</t>
+  </si>
+  <si>
+    <t>192.168.114.63 /27</t>
+  </si>
+  <si>
+    <t>Bloques WAN</t>
+  </si>
+  <si>
+    <t>Primera direccion</t>
+  </si>
+  <si>
+    <t>Ultima direccion</t>
+  </si>
+  <si>
+    <t>Bloque 1</t>
+  </si>
+  <si>
+    <t>Bloque 2</t>
+  </si>
+  <si>
+    <t>Bloque 3</t>
+  </si>
+  <si>
+    <t>Bloque 4</t>
+  </si>
+  <si>
+    <t>Bloque 5</t>
+  </si>
+  <si>
+    <t>Bloque 6</t>
+  </si>
+  <si>
+    <t>Bloque 7</t>
+  </si>
+  <si>
+    <t>Bloque 8</t>
+  </si>
+  <si>
+    <t>Bloque 9</t>
+  </si>
+  <si>
+    <t>Bloque 10</t>
+  </si>
+  <si>
+    <t>Bloque 11</t>
+  </si>
+  <si>
+    <t>Bloque 12</t>
+  </si>
+  <si>
+    <t>Bloque 13</t>
+  </si>
+  <si>
+    <t>Bloque 14</t>
+  </si>
+  <si>
+    <t>Bloque 15</t>
+  </si>
+  <si>
+    <t>Bloque 16</t>
+  </si>
+  <si>
+    <t>Bloque 17</t>
+  </si>
+  <si>
+    <t>Bloque 18</t>
+  </si>
+  <si>
+    <t>Bloque 19</t>
+  </si>
+  <si>
+    <t>Bloque 20</t>
+  </si>
+  <si>
+    <t>Bloque 21</t>
+  </si>
+  <si>
+    <t>Bloque 22</t>
+  </si>
+  <si>
+    <t>Bloque 23</t>
+  </si>
+  <si>
+    <t>Bloque 24</t>
+  </si>
+  <si>
+    <t>Bloque 25</t>
+  </si>
+  <si>
+    <t>Bloque 26</t>
+  </si>
+  <si>
+    <t>Bloque 27</t>
+  </si>
+  <si>
+    <t>Bloque 28</t>
+  </si>
+  <si>
+    <t>Bloque 29</t>
+  </si>
+  <si>
+    <t>Bloque 30</t>
+  </si>
+  <si>
+    <t>Bloque 31</t>
+  </si>
+  <si>
+    <t>Bloque 32</t>
+  </si>
+  <si>
+    <t>Bloque 33</t>
+  </si>
+  <si>
+    <t>Bloque 34</t>
+  </si>
+  <si>
+    <t>Bloque 35</t>
+  </si>
+  <si>
+    <t>Bloque 36</t>
+  </si>
+  <si>
+    <t>Bloque 37</t>
+  </si>
+  <si>
+    <t>Bloque 38</t>
+  </si>
+  <si>
+    <t>Bloque 39</t>
+  </si>
+  <si>
+    <t>Bloque 40</t>
+  </si>
+  <si>
+    <t>Bloque 41</t>
+  </si>
+  <si>
+    <t>Bloque 42</t>
+  </si>
+  <si>
+    <t>Bloque 43</t>
+  </si>
+  <si>
+    <t>Bloque 44</t>
+  </si>
+  <si>
+    <t>Bloque 45</t>
+  </si>
+  <si>
+    <t>Bloque 46</t>
+  </si>
+  <si>
+    <t>192.168.116.100 /30</t>
+  </si>
+  <si>
+    <t>192.168.116.104 /30</t>
+  </si>
+  <si>
+    <t>192.168.116.108 /30</t>
+  </si>
+  <si>
+    <t>192.168.116.112 /30</t>
+  </si>
+  <si>
+    <t>192.168.116.116 /30</t>
+  </si>
+  <si>
+    <t>192.168.116.120 /30</t>
+  </si>
+  <si>
+    <t>192.168.116.124 /30</t>
+  </si>
+  <si>
+    <t>192.168.116.128 /30</t>
+  </si>
+  <si>
+    <t>192.168.116.132 /30</t>
+  </si>
+  <si>
+    <t>192.168.116.136 /30</t>
+  </si>
+  <si>
+    <t>192.168.116.140 /30</t>
+  </si>
+  <si>
+    <t>192.168.116.144 /30</t>
+  </si>
+  <si>
+    <t>192.168.116.148 /30</t>
+  </si>
+  <si>
+    <t>192.168.116.152 /30</t>
+  </si>
+  <si>
+    <t>192.168.116.156 /30</t>
+  </si>
+  <si>
+    <t>192.168.116.160 /30</t>
+  </si>
+  <si>
+    <t>192.168.116.164 /30</t>
+  </si>
+  <si>
+    <t>192.168.116.168 /30</t>
+  </si>
+  <si>
+    <t>192.168.116.172 /30</t>
+  </si>
+  <si>
+    <t>192.168.116.176 /30</t>
+  </si>
+  <si>
+    <t>192.168.116.180 /30</t>
+  </si>
+  <si>
+    <t>192.168.116.184 /30</t>
+  </si>
+  <si>
+    <t>192.168.116.188 /30</t>
+  </si>
+  <si>
+    <t>192.168.116.192 /30</t>
+  </si>
+  <si>
+    <t>192.168.116.196 /30</t>
+  </si>
+  <si>
+    <t>192.168.116.200 /30</t>
+  </si>
+  <si>
+    <t>192.168.116.204 /30</t>
+  </si>
+  <si>
+    <t>192.168.116.208 /30</t>
+  </si>
+  <si>
+    <t>192.168.116.212 /30</t>
+  </si>
+  <si>
+    <t>192.168.116.216 /30</t>
+  </si>
+  <si>
+    <t>192.168.116.220 /30</t>
+  </si>
+  <si>
+    <t>192.168.116.224 /30</t>
+  </si>
+  <si>
+    <t>192.168.116.228 /30</t>
+  </si>
+  <si>
+    <t>192.168.116.232 /30</t>
+  </si>
+  <si>
+    <t>192.168.116.236 /30</t>
+  </si>
+  <si>
+    <t>192.168.116.240 /30</t>
+  </si>
+  <si>
+    <t>192.168.116.244 /30</t>
+  </si>
+  <si>
+    <t>192.168.116.248 /30</t>
+  </si>
+  <si>
+    <t>192.168.116.252 /30</t>
+  </si>
+  <si>
+    <t>192.168.117.0 /30</t>
+  </si>
+  <si>
+    <t>192.168.117.4 /30</t>
+  </si>
+  <si>
+    <t>192.168.117.8 /30</t>
+  </si>
+  <si>
+    <t>192.168.117.12 /30</t>
+  </si>
+  <si>
+    <t>192.168.117.16 /30</t>
+  </si>
+  <si>
+    <t>192.168.117.20 /30</t>
+  </si>
+  <si>
+    <t>192.168.116.99 /30</t>
+  </si>
+  <si>
+    <t>192.168.116.103 /30</t>
+  </si>
+  <si>
+    <t>192.168.116.107 /30</t>
+  </si>
+  <si>
+    <t>192.168.116.111 /30</t>
+  </si>
+  <si>
+    <t>192.168.116.115 /30</t>
+  </si>
+  <si>
+    <t>192.168.116.119 /30</t>
+  </si>
+  <si>
+    <t>192.168.116.123 /30</t>
+  </si>
+  <si>
+    <t>192.168.116.127 /30</t>
+  </si>
+  <si>
+    <t>192.168.116.131 /30</t>
+  </si>
+  <si>
+    <t>192.168.116.135 /30</t>
+  </si>
+  <si>
+    <t>192.168.116.139 /30</t>
+  </si>
+  <si>
+    <t>192.168.116.143 /30</t>
+  </si>
+  <si>
+    <t>192.168.116.147 /30</t>
+  </si>
+  <si>
+    <t>192.168.116.151 /30</t>
+  </si>
+  <si>
+    <t>192.168.116.155 /30</t>
+  </si>
+  <si>
+    <t>192.168.116.159 /30</t>
+  </si>
+  <si>
+    <t>192.168.116.163 /30</t>
+  </si>
+  <si>
+    <t>192.168.116.167 /30</t>
+  </si>
+  <si>
+    <t>192.168.116.171 /30</t>
+  </si>
+  <si>
+    <t>192.168.116.175 /30</t>
+  </si>
+  <si>
+    <t>192.168.116.179 /30</t>
+  </si>
+  <si>
+    <t>192.168.116.183 /30</t>
+  </si>
+  <si>
+    <t>192.168.116.187 /30</t>
+  </si>
+  <si>
+    <t>192.168.116.191 /30</t>
+  </si>
+  <si>
+    <t>192.168.116.195 /30</t>
+  </si>
+  <si>
+    <t>192.168.116.199 /30</t>
+  </si>
+  <si>
+    <t>192.168.116.203 /30</t>
+  </si>
+  <si>
+    <t>192.168.116.207 /30</t>
+  </si>
+  <si>
+    <t>192.168.116.211/30</t>
+  </si>
+  <si>
+    <t>192.168.116.215 /30</t>
+  </si>
+  <si>
+    <t>192.168.116.219 /30</t>
+  </si>
+  <si>
+    <t>192.168.116.223 /30</t>
+  </si>
+  <si>
+    <t>192.168.116.227 /30</t>
+  </si>
+  <si>
+    <t>192.168.116.231 /30</t>
+  </si>
+  <si>
+    <t>192.168.116.235 /30</t>
+  </si>
+  <si>
+    <t>192.168.116.239 /30</t>
+  </si>
+  <si>
+    <t>192.168.116.243 /30</t>
+  </si>
+  <si>
+    <t>192.168.116.247 /30</t>
+  </si>
+  <si>
+    <t>192.168.116.251 /30</t>
+  </si>
+  <si>
+    <t>192.168.116.255 /30</t>
+  </si>
+  <si>
+    <t>192.168.117.3 /30</t>
+  </si>
+  <si>
+    <t>192.168.117.7 /30</t>
+  </si>
+  <si>
+    <t>192.168.117.11 /30</t>
+  </si>
+  <si>
+    <t>192.168.117.15 /30</t>
+  </si>
+  <si>
+    <t>192.168.117.19 /30</t>
+  </si>
+  <si>
+    <t>192.168.117.23 /30</t>
+  </si>
+  <si>
+    <t>192.168.116.96 /30</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -247,8 +988,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -270,6 +1018,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -373,18 +1127,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -392,21 +1136,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -417,9 +1155,44 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -735,10 +1508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3ECA57C-C0C6-48F2-B4A3-4DC99C95754C}">
-  <dimension ref="A2:H48"/>
+  <dimension ref="A2:H98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:B5"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E84" sqref="E84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -753,492 +1526,1236 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
     </row>
     <row r="4" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="6" t="s">
+      <c r="B4" s="13"/>
+      <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="6" t="s">
+      <c r="F4" s="15"/>
+      <c r="G4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="8" t="s">
+      <c r="B5" s="12"/>
+      <c r="C5" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="9"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="6" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="8" t="s">
+      <c r="C6" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="9"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="7" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="8" t="s">
+      <c r="B7" s="12"/>
+      <c r="C7" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="9"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="8" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="8" t="s">
+      <c r="B8" s="12"/>
+      <c r="C8" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="9"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="14" t="s">
+      <c r="B12" s="9"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="18" t="s">
+      <c r="B14" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
+      <c r="E14" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="18" t="s">
+      <c r="B15" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
+      <c r="E15" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="18" t="s">
+      <c r="B16" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
+      <c r="E16" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="18" t="s">
+      <c r="B17" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
+      <c r="E17" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="18" t="s">
+      <c r="B18" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
+      <c r="E18" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="18" t="s">
+      <c r="B19" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
+      <c r="E19" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="18" t="s">
+      <c r="B20" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
+      <c r="E20" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="18" t="s">
+      <c r="B21" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
+      <c r="E21" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="17"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="18" t="s">
+      <c r="B22" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
+      <c r="E22" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="18" t="s">
+      <c r="B23" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
+      <c r="E23" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
     </row>
     <row r="24" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D24" s="18" t="s">
+      <c r="D24" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
+      <c r="E24" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="25" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D25" s="18" t="s">
+      <c r="D25" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
+      <c r="E25" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="26" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D26" s="18" t="s">
+      <c r="D26" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
+      <c r="E26" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="27" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D27" s="18" t="s">
+      <c r="D27" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
+      <c r="E27" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="28" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D28" s="18" t="s">
+      <c r="D28" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
+      <c r="E28" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="29" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D29" s="18" t="s">
+      <c r="D29" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
+      <c r="E29" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="30" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D30" s="18" t="s">
+      <c r="D30" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
+      <c r="E30" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="31" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D31" s="18" t="s">
+      <c r="D31" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
+      <c r="E31" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="32" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D32" s="18" t="s">
+      <c r="D32" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
+      <c r="E32" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="33" spans="4:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D33" s="18" t="s">
+      <c r="D33" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
+      <c r="E33" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="34" spans="4:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D34" s="18" t="s">
+      <c r="D34" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
+      <c r="E34" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="35" spans="4:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D35" s="18" t="s">
+      <c r="D35" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
+      <c r="E35" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="36" spans="4:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D36" s="18" t="s">
+      <c r="D36" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
+      <c r="E36" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="37" spans="4:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D37" s="18" t="s">
+      <c r="D37" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
+      <c r="E37" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="38" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D38" s="18" t="s">
+      <c r="D38" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
+      <c r="E38" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="39" spans="4:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D39" s="18" t="s">
+      <c r="D39" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
+      <c r="E39" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="40" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D40" s="18" t="s">
+      <c r="D40" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
+      <c r="E40" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="41" spans="4:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D41" s="18" t="s">
+      <c r="D41" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
+      <c r="E41" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="42" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D42" s="18" t="s">
+      <c r="D42" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
+      <c r="E42" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="43" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D43" s="18" t="s">
+      <c r="D43" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
+      <c r="E43" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="44" spans="4:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D44" s="18" t="s">
+      <c r="D44" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
+      <c r="E44" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="45" spans="4:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D45" s="18" t="s">
+      <c r="D45" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
+      <c r="E45" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="46" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D46" s="18" t="s">
+      <c r="D46" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
+      <c r="E46" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="47" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D47" s="18" t="s">
+      <c r="D47" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
+      <c r="E47" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="48" spans="4:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D48" s="18" t="s">
+      <c r="D48" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
+      <c r="E48" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="8"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="8"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="10"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="B52" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="C52" s="22" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="B53" s="20" t="s">
+        <v>306</v>
+      </c>
+      <c r="C53" s="20" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="B54" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="C54" s="20" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="B55" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="C55" s="20" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="B56" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="C56" s="20" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="B57" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="C57" s="20" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="B58" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="C58" s="20" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="B59" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="C59" s="20" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="B60" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="C60" s="20" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="B61" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="C61" s="20" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="B62" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="C62" s="20" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="B63" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="C63" s="20" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="B64" s="20" t="s">
+        <v>225</v>
+      </c>
+      <c r="C64" s="20" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="B65" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="C65" s="20" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="B66" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="C66" s="20" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="B67" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="C67" s="20" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="B68" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="C68" s="20" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="B69" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="C69" s="20" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="B70" s="20" t="s">
+        <v>231</v>
+      </c>
+      <c r="C70" s="20" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="B71" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="C71" s="20" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="B72" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="C72" s="20" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="B73" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="C73" s="20" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="B74" s="20" t="s">
+        <v>235</v>
+      </c>
+      <c r="C74" s="20" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="B75" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="C75" s="20" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="B76" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="C76" s="20" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="B77" s="20" t="s">
+        <v>238</v>
+      </c>
+      <c r="C77" s="20" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="B78" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="C78" s="20" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="B79" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="C79" s="20" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="B80" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="C80" s="20" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="B81" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="C81" s="20" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="B82" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="C82" s="20" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="B83" s="20" t="s">
+        <v>244</v>
+      </c>
+      <c r="C83" s="20" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="B84" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="C84" s="20" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="B85" s="20" t="s">
+        <v>246</v>
+      </c>
+      <c r="C85" s="20" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="B86" s="20" t="s">
+        <v>247</v>
+      </c>
+      <c r="C86" s="20" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="B87" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="C87" s="20" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="B88" s="20" t="s">
+        <v>249</v>
+      </c>
+      <c r="C88" s="20" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="B89" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="C89" s="20" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="B90" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="C90" s="20" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="B91" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="C91" s="20" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="B92" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="C92" s="20" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="B93" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="C93" s="20" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="B94" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="C94" s="20" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="B95" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="C95" s="20" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="B96" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="C96" s="20" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="B97" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="C97" s="20" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="B98" s="20" t="s">
+        <v>259</v>
+      </c>
+      <c r="C98" s="20" t="s">
+        <v>305</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="18">
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="A50:F50"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="A12:C12"/>
